--- a/data/trans_orig/P36B15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B15-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{408C6C2A-E771-4B61-AFB3-F805D3172484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A59177D-2AD4-4758-92DF-55648DBFBE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4094A78-FA53-474E-95BE-52450426F6BA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A850AE73-4829-4FA4-A2DE-B50ACF468AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="664">
-  <si>
-    <t>Población según la frecuencia de consumición de dulces en 2007 (Tasa respuesta: 99,63%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="649">
+  <si>
+    <t>Población según la frecuencia de consumición de vino en 2007 (Tasa respuesta: 99,63%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>22,04%</t>
   </si>
   <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
   </si>
   <si>
     <t>17,39%</t>
   </si>
   <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
   </si>
   <si>
     <t>19,44%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -107,1822 +107,1789 @@
     <t>18,23%</t>
   </si>
   <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
   </si>
   <si>
     <t>22,36%</t>
   </si>
   <si>
-    <t>20,07%</t>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumición de vino en 2012 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumición de vino en 2015 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>11,19%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumición de vino en 2023 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
   </si>
   <si>
     <t>31,95%</t>
   </si>
   <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>28,37%</t>
   </si>
   <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de dulces en 2012 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de dulces en 2015 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de dulces en 2023 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>29,98%</t>
   </si>
   <si>
     <t>29,7%</t>
   </si>
   <si>
-    <t>26,52%</t>
+    <t>26,7%</t>
   </si>
   <si>
     <t>31,26%</t>
@@ -1931,70 +1898,61 @@
     <t>29,08%</t>
   </si>
   <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
   </si>
   <si>
     <t>28,26%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
   </si>
   <si>
     <t>26,8%</t>
   </si>
   <si>
-    <t>24,16%</t>
+    <t>28,47%</t>
   </si>
   <si>
     <t>27,11%</t>
   </si>
   <si>
+    <t>25,57%</t>
+  </si>
+  <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>9,97%</t>
@@ -2003,34 +1961,31 @@
     <t>9,14%</t>
   </si>
   <si>
-    <t>10,86%</t>
+    <t>10,77%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>5,56%</t>
+    <t>5,6%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
   </si>
 </sst>
 </file>
@@ -2442,7 +2397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C386D67A-6319-47C2-9793-F91EDC1248BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB691E7-EA28-4F20-AFE2-90149A743172}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3078,13 +3033,13 @@
         <v>263249</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>239</v>
@@ -3093,13 +3048,13 @@
         <v>243241</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>498</v>
@@ -3108,13 +3063,13 @@
         <v>506490</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,7 +3125,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3182,10 +3137,10 @@
         <v>78696</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>75</v>
@@ -3197,7 +3152,7 @@
         <v>57434</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>110</v>
@@ -3239,7 +3194,7 @@
         <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>86</v>
@@ -3248,13 +3203,13 @@
         <v>88330</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>193</v>
@@ -3263,10 +3218,10 @@
         <v>201183</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>121</v>
@@ -3562,7 +3517,7 @@
         <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="M23" s="7">
         <v>1327</v>
@@ -3571,13 +3526,13 @@
         <v>1349929</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3547,13 @@
         <v>976512</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>1079</v>
@@ -3607,13 +3562,13 @@
         <v>1103081</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M24" s="7">
         <v>2030</v>
@@ -3658,13 +3613,13 @@
         <v>650871</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>1297</v>
@@ -3673,13 +3628,13 @@
         <v>1327998</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3649,13 @@
         <v>458604</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>455</v>
@@ -3709,13 +3664,13 @@
         <v>468420</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>905</v>
@@ -3805,7 +3760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC9F026-C484-44F8-8F56-D018A31FD3CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6625EA41-7DC7-4DE9-9827-D556AC5E508D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3935,7 +3890,7 @@
         <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
         <v>245</v>
@@ -3944,13 +3899,13 @@
         <v>257817</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>444</v>
@@ -3959,13 +3914,13 @@
         <v>473612</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,7 +3941,7 @@
         <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
         <v>195</v>
@@ -3995,13 +3950,13 @@
         <v>210318</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>312</v>
@@ -4010,13 +3965,13 @@
         <v>336000</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +3986,13 @@
         <v>239371</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H6" s="7">
         <v>333</v>
@@ -4046,13 +4001,13 @@
         <v>358947</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M6" s="7">
         <v>559</v>
@@ -4061,13 +4016,13 @@
         <v>598318</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4037,13 @@
         <v>221204</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>260</v>
@@ -4097,13 +4052,13 @@
         <v>279999</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>465</v>
@@ -4112,13 +4067,13 @@
         <v>501204</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4088,13 @@
         <v>160176</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>207</v>
@@ -4148,7 +4103,7 @@
         <v>222539</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>228</v>
@@ -4237,13 +4192,13 @@
         <v>239748</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
@@ -4252,13 +4207,13 @@
         <v>193484</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>397</v>
@@ -4267,13 +4222,13 @@
         <v>433232</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4243,13 @@
         <v>257158</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H11" s="7">
         <v>224</v>
@@ -4303,13 +4258,13 @@
         <v>240747</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>469</v>
@@ -4318,13 +4273,13 @@
         <v>497905</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4294,13 @@
         <v>530333</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H12" s="7">
         <v>478</v>
@@ -4354,13 +4309,13 @@
         <v>511764</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M12" s="7">
         <v>976</v>
@@ -4369,13 +4324,13 @@
         <v>1042097</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>259</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4345,13 @@
         <v>533705</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H13" s="7">
         <v>438</v>
@@ -4405,13 +4360,13 @@
         <v>470055</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>939</v>
@@ -4420,13 +4375,13 @@
         <v>1003759</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4396,13 @@
         <v>399571</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>119</v>
       </c>
       <c r="H14" s="7">
         <v>318</v>
@@ -4456,13 +4411,13 @@
         <v>335736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>702</v>
@@ -4471,13 +4426,13 @@
         <v>735307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,7 +4488,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4545,13 +4500,13 @@
         <v>56230</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -4560,13 +4515,13 @@
         <v>47346</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>147</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
@@ -4575,13 +4530,13 @@
         <v>103577</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4551,13 @@
         <v>70537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -4611,13 +4566,13 @@
         <v>71023</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
         <v>125</v>
@@ -4626,13 +4581,13 @@
         <v>141560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4602,13 @@
         <v>164456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H18" s="7">
         <v>128</v>
@@ -4662,13 +4617,13 @@
         <v>140869</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M18" s="7">
         <v>276</v>
@@ -4677,13 +4632,13 @@
         <v>305325</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4653,13 @@
         <v>119131</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H19" s="7">
         <v>113</v>
@@ -4713,13 +4668,13 @@
         <v>125021</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
         <v>223</v>
@@ -4728,13 +4683,13 @@
         <v>244152</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4704,13 @@
         <v>68918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
@@ -4764,13 +4719,13 @@
         <v>73412</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>49</v>
       </c>
       <c r="M20" s="7">
         <v>131</v>
@@ -4779,13 +4734,13 @@
         <v>142329</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4808,13 @@
         <v>511773</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>231</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H22" s="7">
         <v>459</v>
@@ -4868,13 +4823,13 @@
         <v>498647</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M22" s="7">
         <v>933</v>
@@ -4883,13 +4838,13 @@
         <v>1010420</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>325</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4859,13 @@
         <v>453377</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>288</v>
+        <v>153</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H23" s="7">
         <v>480</v>
@@ -4919,13 +4874,13 @@
         <v>522088</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M23" s="7">
         <v>906</v>
@@ -4934,13 +4889,13 @@
         <v>975465</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4910,13 @@
         <v>934160</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="H24" s="7">
         <v>939</v>
@@ -4970,13 +4925,13 @@
         <v>1011581</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>337</v>
+        <v>262</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M24" s="7">
         <v>1811</v>
@@ -4985,13 +4940,13 @@
         <v>1945741</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +4961,13 @@
         <v>874039</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>215</v>
+        <v>337</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="H25" s="7">
         <v>811</v>
@@ -5021,13 +4976,13 @@
         <v>875075</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>1627</v>
@@ -5036,13 +4991,13 @@
         <v>1749115</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5012,13 @@
         <v>628664</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H26" s="7">
         <v>592</v>
@@ -5072,13 +5027,13 @@
         <v>631686</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>225</v>
+        <v>348</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M26" s="7">
         <v>1189</v>
@@ -5087,13 +5042,13 @@
         <v>1260351</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,7 +5090,7 @@
         <v>6466</v>
       </c>
       <c r="N27" s="7">
-        <v>6941092</v>
+        <v>6941091</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -5168,7 +5123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E43F0F-7AB6-46F9-82F7-503BF52918E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861F409D-FC65-4F1E-A8D7-8FE2400787AA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5185,7 +5140,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5292,13 +5247,13 @@
         <v>226426</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H4" s="7">
         <v>273</v>
@@ -5307,13 +5262,13 @@
         <v>312829</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>506</v>
@@ -5322,13 +5277,13 @@
         <v>539255</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5298,13 @@
         <v>139873</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>365</v>
+        <v>266</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -5358,13 +5313,13 @@
         <v>201666</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>368</v>
+        <v>216</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M5" s="7">
         <v>327</v>
@@ -5373,13 +5328,13 @@
         <v>341539</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>100</v>
+        <v>367</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5349,13 @@
         <v>162168</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>374</v>
+        <v>283</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H6" s="7">
         <v>201</v>
@@ -5409,13 +5364,13 @@
         <v>221699</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M6" s="7">
         <v>364</v>
@@ -5424,13 +5379,13 @@
         <v>383867</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5400,13 @@
         <v>143584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -5460,13 +5415,13 @@
         <v>173057</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M7" s="7">
         <v>303</v>
@@ -5475,13 +5430,13 @@
         <v>316641</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>388</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5451,13 @@
         <v>79590</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H8" s="7">
         <v>77</v>
@@ -5511,13 +5466,13 @@
         <v>85409</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="M8" s="7">
         <v>151</v>
@@ -5526,13 +5481,13 @@
         <v>164998</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>68</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,13 +5555,13 @@
         <v>335972</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>391</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7">
         <v>294</v>
@@ -5615,13 +5570,13 @@
         <v>323224</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>320</v>
+        <v>392</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M10" s="7">
         <v>605</v>
@@ -5630,13 +5585,13 @@
         <v>659197</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>318</v>
+        <v>395</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,13 +5606,13 @@
         <v>400769</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>95</v>
+        <v>398</v>
       </c>
       <c r="H11" s="7">
         <v>363</v>
@@ -5666,28 +5621,28 @@
         <v>376678</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>220</v>
+        <v>399</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>401</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="M11" s="7">
         <v>732</v>
       </c>
       <c r="N11" s="7">
-        <v>777447</v>
+        <v>777446</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5657,13 @@
         <v>545140</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>404</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>405</v>
+        <v>331</v>
       </c>
       <c r="H12" s="7">
         <v>520</v>
@@ -5717,13 +5672,13 @@
         <v>543696</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M12" s="7">
         <v>1042</v>
@@ -5732,13 +5687,13 @@
         <v>1088837</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5708,13 @@
         <v>504031</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H13" s="7">
         <v>461</v>
@@ -5768,13 +5723,13 @@
         <v>464853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>415</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M13" s="7">
         <v>942</v>
@@ -5783,13 +5738,13 @@
         <v>968884</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5759,13 @@
         <v>284115</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>422</v>
+        <v>109</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>418</v>
       </c>
       <c r="H14" s="7">
         <v>265</v>
@@ -5819,13 +5774,13 @@
         <v>274564</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>423</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>419</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>528</v>
@@ -5834,13 +5789,13 @@
         <v>558679</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,7 +5837,7 @@
         <v>3849</v>
       </c>
       <c r="N15" s="7">
-        <v>4053044</v>
+        <v>4053043</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5896,7 +5851,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5911,10 +5866,10 @@
         <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>426</v>
+        <v>231</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -5923,13 +5878,13 @@
         <v>64344</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -5938,13 +5893,13 @@
         <v>162866</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5914,13 @@
         <v>98426</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>430</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -5974,13 +5929,13 @@
         <v>121544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>436</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>437</v>
+        <v>266</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M17" s="7">
         <v>205</v>
@@ -5989,13 +5944,13 @@
         <v>219970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>439</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +5965,13 @@
         <v>176738</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="H18" s="7">
         <v>129</v>
@@ -6025,13 +5980,13 @@
         <v>133340</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>445</v>
+        <v>137</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>446</v>
+        <v>331</v>
       </c>
       <c r="M18" s="7">
         <v>291</v>
@@ -6040,13 +5995,13 @@
         <v>310077</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>447</v>
+        <v>167</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>39</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6016,13 @@
         <v>121006</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>198</v>
+        <v>441</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H19" s="7">
         <v>151</v>
@@ -6076,13 +6031,13 @@
         <v>157483</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M19" s="7">
         <v>264</v>
@@ -6091,13 +6046,13 @@
         <v>278489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6067,13 @@
         <v>50681</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H20" s="7">
         <v>70</v>
@@ -6127,13 +6082,13 @@
         <v>71260</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>462</v>
+        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -6142,13 +6097,13 @@
         <v>121941</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>463</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,13 +6171,13 @@
         <v>660919</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>457</v>
       </c>
       <c r="H22" s="7">
         <v>627</v>
@@ -6231,28 +6186,28 @@
         <v>700398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>459</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>468</v>
+        <v>19</v>
       </c>
       <c r="M22" s="7">
         <v>1258</v>
       </c>
       <c r="N22" s="7">
-        <v>1361317</v>
+        <v>1361318</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>470</v>
+        <v>229</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6222,13 @@
         <v>639067</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>474</v>
+        <v>23</v>
       </c>
       <c r="H23" s="7">
         <v>661</v>
@@ -6282,13 +6237,13 @@
         <v>699889</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="M23" s="7">
         <v>1264</v>
@@ -6297,13 +6252,13 @@
         <v>1338956</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6273,13 @@
         <v>884046</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="H24" s="7">
         <v>850</v>
@@ -6333,28 +6288,28 @@
         <v>898735</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>485</v>
+        <v>249</v>
       </c>
       <c r="M24" s="7">
         <v>1697</v>
       </c>
       <c r="N24" s="7">
-        <v>1782781</v>
+        <v>1782782</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6324,13 @@
         <v>768621</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="H25" s="7">
         <v>770</v>
@@ -6384,13 +6339,13 @@
         <v>795393</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="M25" s="7">
         <v>1509</v>
@@ -6399,13 +6354,13 @@
         <v>1564014</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6375,13 @@
         <v>414385</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="H26" s="7">
         <v>412</v>
@@ -6435,13 +6390,13 @@
         <v>431233</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>248</v>
+        <v>489</v>
       </c>
       <c r="M26" s="7">
         <v>797</v>
@@ -6450,10 +6405,10 @@
         <v>845618</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>200</v>
@@ -6498,7 +6453,7 @@
         <v>6525</v>
       </c>
       <c r="N27" s="7">
-        <v>6892686</v>
+        <v>6892687</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6531,7 +6486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6CA1E7-F98B-4862-ACE0-D5A6331212FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE917A8-EA17-4A8B-B6AF-7895803D37BF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6548,7 +6503,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6655,13 +6610,13 @@
         <v>184424</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="H4" s="7">
         <v>584</v>
@@ -6670,13 +6625,13 @@
         <v>317405</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="M4" s="7">
         <v>859</v>
@@ -6685,13 +6640,13 @@
         <v>501829</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6661,13 @@
         <v>124491</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="H5" s="7">
         <v>302</v>
@@ -6721,13 +6676,13 @@
         <v>191791</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>410</v>
+        <v>507</v>
       </c>
       <c r="M5" s="7">
         <v>451</v>
@@ -6736,13 +6691,13 @@
         <v>316282</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6712,13 @@
         <v>127264</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="H6" s="7">
         <v>325</v>
@@ -6772,13 +6727,13 @@
         <v>195984</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>139</v>
+        <v>514</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="M6" s="7">
         <v>475</v>
@@ -6787,13 +6742,13 @@
         <v>323248</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>525</v>
+        <v>223</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>76</v>
+        <v>516</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>341</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6763,13 @@
         <v>56168</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>520</v>
       </c>
       <c r="H7" s="7">
         <v>118</v>
@@ -6823,13 +6778,13 @@
         <v>74359</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="M7" s="7">
         <v>179</v>
@@ -6838,13 +6793,13 @@
         <v>130527</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>533</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,13 +6814,13 @@
         <v>46943</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>536</v>
+        <v>307</v>
       </c>
       <c r="H8" s="7">
         <v>93</v>
@@ -6874,13 +6829,13 @@
         <v>54099</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="M8" s="7">
         <v>147</v>
@@ -6889,13 +6844,13 @@
         <v>101041</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,13 +6918,13 @@
         <v>540351</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="H10" s="7">
         <v>885</v>
@@ -6978,13 +6933,13 @@
         <v>561550</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M10" s="7">
         <v>1458</v>
@@ -6993,13 +6948,13 @@
         <v>1101901</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>547</v>
+        <v>510</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +6969,13 @@
         <v>512016</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="H11" s="7">
         <v>773</v>
@@ -7029,13 +6984,13 @@
         <v>685021</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="M11" s="7">
         <v>1277</v>
@@ -7044,13 +6999,13 @@
         <v>1197037</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,13 +7020,13 @@
         <v>633234</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="H12" s="7">
         <v>804</v>
@@ -7080,13 +7035,13 @@
         <v>632942</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="M12" s="7">
         <v>1374</v>
@@ -7095,13 +7050,13 @@
         <v>1266176</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,13 +7071,13 @@
         <v>266962</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>568</v>
+        <v>518</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>569</v>
+        <v>316</v>
       </c>
       <c r="H13" s="7">
         <v>280</v>
@@ -7131,13 +7086,13 @@
         <v>211375</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="M13" s="7">
         <v>502</v>
@@ -7146,13 +7101,13 @@
         <v>478337</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,13 +7122,13 @@
         <v>208339</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="H14" s="7">
         <v>175</v>
@@ -7182,13 +7137,13 @@
         <v>156019</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="M14" s="7">
         <v>296</v>
@@ -7197,13 +7152,13 @@
         <v>364358</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>460</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7259,7 +7214,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7271,13 +7226,13 @@
         <v>232109</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>584</v>
+        <v>494</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="H16" s="7">
         <v>370</v>
@@ -7286,13 +7241,13 @@
         <v>247921</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="M16" s="7">
         <v>617</v>
@@ -7301,13 +7256,13 @@
         <v>480030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7277,13 @@
         <v>185868</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="H17" s="7">
         <v>268</v>
@@ -7337,13 +7292,13 @@
         <v>195459</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>596</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="M17" s="7">
         <v>453</v>
@@ -7352,13 +7307,13 @@
         <v>381327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7328,13 @@
         <v>165569</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>482</v>
+        <v>588</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="H18" s="7">
         <v>256</v>
@@ -7388,13 +7343,13 @@
         <v>188023</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>139</v>
+        <v>592</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>604</v>
+        <v>80</v>
       </c>
       <c r="M18" s="7">
         <v>421</v>
@@ -7403,13 +7358,13 @@
         <v>353591</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>605</v>
+        <v>217</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>216</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,13 +7379,13 @@
         <v>58125</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -7439,13 +7394,13 @@
         <v>47318</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -7454,13 +7409,13 @@
         <v>105443</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>394</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7475,13 +7430,13 @@
         <v>30490</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
@@ -7490,13 +7445,13 @@
         <v>35006</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -7505,13 +7460,13 @@
         <v>65495</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,13 +7534,13 @@
         <v>956884</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>168</v>
+        <v>613</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>624</v>
+        <v>343</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="H22" s="7">
         <v>1839</v>
@@ -7594,13 +7549,13 @@
         <v>1126877</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="M22" s="7">
         <v>2934</v>
@@ -7609,13 +7564,13 @@
         <v>2083761</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>630</v>
+        <v>404</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,13 +7585,13 @@
         <v>822375</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>632</v>
+        <v>211</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="H23" s="7">
         <v>1343</v>
@@ -7645,13 +7600,13 @@
         <v>1072272</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="M23" s="7">
         <v>2181</v>
@@ -7660,13 +7615,13 @@
         <v>1894647</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>638</v>
+        <v>504</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>639</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7681,13 +7636,13 @@
         <v>926067</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="H24" s="7">
         <v>1385</v>
@@ -7696,13 +7651,13 @@
         <v>1016949</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>644</v>
+        <v>91</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>360</v>
+        <v>629</v>
       </c>
       <c r="M24" s="7">
         <v>2270</v>
@@ -7711,13 +7666,13 @@
         <v>1943016</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7732,13 +7687,13 @@
         <v>381254</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="H25" s="7">
         <v>457</v>
@@ -7747,13 +7702,13 @@
         <v>333052</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="M25" s="7">
         <v>791</v>
@@ -7762,13 +7717,13 @@
         <v>714306</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7783,13 +7738,13 @@
         <v>285771</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="H26" s="7">
         <v>318</v>
@@ -7798,13 +7753,13 @@
         <v>245124</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="M26" s="7">
         <v>525</v>
@@ -7813,13 +7768,13 @@
         <v>530895</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>661</v>
+        <v>522</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B15-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A59177D-2AD4-4758-92DF-55648DBFBE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93339CC8-7F23-4C27-8ABF-245AD263E1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A850AE73-4829-4FA4-A2DE-B50ACF468AC4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B454E1F-41A5-4F52-BC1E-A5C0A35D3F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="668">
   <si>
     <t>Población según la frecuencia de consumición de vino en 2007 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -77,1866 +77,1926 @@
     <t>22,04%</t>
   </si>
   <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
   </si>
   <si>
     <t>17,39%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>19,44%</t>
   </si>
   <si>
-    <t>17,94%</t>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumición de vino en 2012 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumición de vino en 2016 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumición de vino en 2023 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
   </si>
   <si>
     <t>21,26%</t>
   </si>
   <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de vino en 2012 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
   </si>
   <si>
     <t>24,39%</t>
   </si>
   <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de vino en 2015 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
   </si>
   <si>
     <t>28,34%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de vino en 2023 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
     <t>11,31%</t>
   </si>
   <si>
@@ -1968,9 +2028,6 @@
   </si>
   <si>
     <t>6,57%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
   </si>
   <si>
     <t>6,46%</t>
@@ -2397,7 +2454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB691E7-EA28-4F20-AFE2-90149A743172}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114638DD-9AE8-424C-A7D3-9B71E19D9BB9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3033,13 +3090,13 @@
         <v>263249</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>239</v>
@@ -3048,13 +3105,13 @@
         <v>243241</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>498</v>
@@ -3063,13 +3120,13 @@
         <v>506490</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,7 +3182,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3137,13 +3194,13 @@
         <v>78696</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -3152,13 +3209,13 @@
         <v>57434</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -3167,13 +3224,13 @@
         <v>136131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,10 +3248,10 @@
         <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>86</v>
@@ -3203,13 +3260,13 @@
         <v>88330</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>193</v>
@@ -3218,13 +3275,13 @@
         <v>201183</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3296,13 @@
         <v>175624</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>162</v>
@@ -3254,13 +3311,13 @@
         <v>170609</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>330</v>
@@ -3269,13 +3326,13 @@
         <v>346233</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3347,13 @@
         <v>115501</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>95</v>
@@ -3305,13 +3362,13 @@
         <v>99789</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>210</v>
@@ -3320,13 +3377,13 @@
         <v>215290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3398,13 @@
         <v>66848</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -3356,13 +3413,13 @@
         <v>59214</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -3371,13 +3428,13 @@
         <v>126063</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3502,13 @@
         <v>496914</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>438</v>
@@ -3460,13 +3517,13 @@
         <v>449672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>928</v>
@@ -3475,13 +3532,13 @@
         <v>946586</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3553,13 @@
         <v>660117</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>676</v>
@@ -3511,13 +3568,13 @@
         <v>689811</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>1327</v>
@@ -3526,13 +3583,13 @@
         <v>1349929</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3604,13 @@
         <v>976512</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>1079</v>
@@ -3562,13 +3619,13 @@
         <v>1103081</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>2030</v>
@@ -3577,13 +3634,13 @@
         <v>2079593</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3655,13 @@
         <v>677126</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="H25" s="7">
         <v>633</v>
@@ -3613,13 +3670,13 @@
         <v>650871</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>1297</v>
@@ -3628,13 +3685,13 @@
         <v>1327998</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3706,13 @@
         <v>458604</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>455</v>
@@ -3664,13 +3721,13 @@
         <v>468420</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>905</v>
@@ -3679,7 +3736,7 @@
         <v>927025</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>189</v>
@@ -3760,7 +3817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6625EA41-7DC7-4DE9-9827-D556AC5E508D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E4E67-BA87-4A4B-8D61-E48EB158CEEA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3902,10 +3959,10 @@
         <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>444</v>
@@ -3914,13 +3971,13 @@
         <v>473612</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3992,13 @@
         <v>125682</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>195</v>
@@ -3950,13 +4007,13 @@
         <v>210318</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>312</v>
@@ -3965,13 +4022,13 @@
         <v>336000</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +4043,13 @@
         <v>239371</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H6" s="7">
         <v>333</v>
@@ -4001,13 +4058,13 @@
         <v>358947</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>559</v>
@@ -4016,13 +4073,13 @@
         <v>598318</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4094,13 @@
         <v>221204</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>260</v>
@@ -4052,13 +4109,13 @@
         <v>279999</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>465</v>
@@ -4067,13 +4124,13 @@
         <v>501204</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4145,13 @@
         <v>160176</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>207</v>
@@ -4103,13 +4160,13 @@
         <v>222539</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>356</v>
@@ -4118,13 +4175,13 @@
         <v>382715</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4249,13 @@
         <v>239748</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
@@ -4207,13 +4264,13 @@
         <v>193484</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>397</v>
@@ -4222,13 +4279,13 @@
         <v>433232</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4300,13 @@
         <v>257158</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7">
         <v>224</v>
@@ -4258,13 +4315,13 @@
         <v>240747</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>469</v>
@@ -4273,13 +4330,13 @@
         <v>497905</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4351,13 @@
         <v>530333</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>478</v>
@@ -4309,13 +4366,13 @@
         <v>511764</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>976</v>
@@ -4324,13 +4381,13 @@
         <v>1042097</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4402,13 @@
         <v>533705</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>438</v>
@@ -4360,13 +4417,13 @@
         <v>470055</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>939</v>
@@ -4375,13 +4432,13 @@
         <v>1003759</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4453,13 @@
         <v>399571</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>119</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>318</v>
@@ -4411,13 +4468,13 @@
         <v>335736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>702</v>
@@ -4426,13 +4483,13 @@
         <v>735307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,7 +4545,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4500,13 +4557,13 @@
         <v>56230</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -4515,13 +4572,13 @@
         <v>47346</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
@@ -4530,13 +4587,13 @@
         <v>103577</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4608,13 @@
         <v>70537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -4566,13 +4623,13 @@
         <v>71023</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>125</v>
@@ -4581,13 +4638,13 @@
         <v>141560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4659,13 @@
         <v>164456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>128</v>
@@ -4617,13 +4674,13 @@
         <v>140869</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="M18" s="7">
         <v>276</v>
@@ -4632,13 +4689,13 @@
         <v>305325</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4710,13 @@
         <v>119131</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>113</v>
@@ -4668,13 +4725,13 @@
         <v>125021</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>223</v>
@@ -4683,13 +4740,13 @@
         <v>244152</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4761,13 @@
         <v>68918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
@@ -4719,13 +4776,13 @@
         <v>73412</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="M20" s="7">
         <v>131</v>
@@ -4734,13 +4791,13 @@
         <v>142329</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>312</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4865,13 @@
         <v>511773</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>314</v>
+        <v>239</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>459</v>
@@ -4823,13 +4880,13 @@
         <v>498647</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>933</v>
@@ -4838,13 +4895,13 @@
         <v>1010420</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>318</v>
+        <v>56</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4916,13 @@
         <v>453377</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>329</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="H23" s="7">
         <v>480</v>
@@ -4874,13 +4931,13 @@
         <v>522088</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M23" s="7">
         <v>906</v>
@@ -4889,13 +4946,13 @@
         <v>975465</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4967,13 @@
         <v>934160</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="H24" s="7">
         <v>939</v>
@@ -4925,13 +4982,13 @@
         <v>1011581</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M24" s="7">
         <v>1811</v>
@@ -4940,13 +4997,13 @@
         <v>1945741</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +5018,13 @@
         <v>874039</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>257</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>811</v>
@@ -4976,13 +5033,13 @@
         <v>875075</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>1627</v>
@@ -4991,13 +5048,13 @@
         <v>1749115</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5069,13 @@
         <v>628664</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>346</v>
+        <v>25</v>
       </c>
       <c r="H26" s="7">
         <v>592</v>
@@ -5027,13 +5084,13 @@
         <v>631686</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>1189</v>
@@ -5042,13 +5099,13 @@
         <v>1260351</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,7 +5147,7 @@
         <v>6466</v>
       </c>
       <c r="N27" s="7">
-        <v>6941091</v>
+        <v>6941092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -5123,7 +5180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861F409D-FC65-4F1E-A8D7-8FE2400787AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E12304-A661-40DE-9E01-65CCA39D1263}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5140,7 +5197,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5247,13 +5304,13 @@
         <v>226426</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>355</v>
+        <v>263</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H4" s="7">
         <v>273</v>
@@ -5262,13 +5319,13 @@
         <v>312829</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M4" s="7">
         <v>506</v>
@@ -5277,13 +5334,13 @@
         <v>539255</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5355,13 @@
         <v>139873</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>266</v>
+        <v>369</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>309</v>
+        <v>370</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -5313,13 +5370,13 @@
         <v>201666</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>216</v>
+        <v>372</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="M5" s="7">
         <v>327</v>
@@ -5328,13 +5385,13 @@
         <v>341539</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5406,13 @@
         <v>162168</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="H6" s="7">
         <v>201</v>
@@ -5364,13 +5421,13 @@
         <v>221699</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="M6" s="7">
         <v>364</v>
@@ -5379,13 +5436,13 @@
         <v>383867</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5457,13 @@
         <v>143584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -5415,13 +5472,13 @@
         <v>173057</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="M7" s="7">
         <v>303</v>
@@ -5430,13 +5487,13 @@
         <v>316641</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>315</v>
+        <v>392</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>92</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5508,13 @@
         <v>79590</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>382</v>
+        <v>243</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>77</v>
@@ -5466,13 +5523,13 @@
         <v>85409</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="M8" s="7">
         <v>151</v>
@@ -5481,13 +5538,13 @@
         <v>164998</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5612,13 @@
         <v>335972</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>391</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>402</v>
       </c>
       <c r="H10" s="7">
         <v>294</v>
@@ -5570,13 +5627,13 @@
         <v>323224</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>404</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="M10" s="7">
         <v>605</v>
@@ -5585,13 +5642,13 @@
         <v>659197</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5663,13 @@
         <v>400769</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="H11" s="7">
         <v>363</v>
@@ -5621,13 +5678,13 @@
         <v>376678</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>412</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="M11" s="7">
         <v>732</v>
@@ -5636,13 +5693,13 @@
         <v>777446</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>414</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>401</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5714,13 @@
         <v>545140</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
       <c r="H12" s="7">
         <v>520</v>
@@ -5672,13 +5729,13 @@
         <v>543696</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>406</v>
+        <v>37</v>
       </c>
       <c r="M12" s="7">
         <v>1042</v>
@@ -5687,13 +5744,13 @@
         <v>1088837</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>358</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5765,13 @@
         <v>504031</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="H13" s="7">
         <v>461</v>
@@ -5723,13 +5780,13 @@
         <v>464853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>139</v>
+        <v>426</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="M13" s="7">
         <v>942</v>
@@ -5738,13 +5795,13 @@
         <v>968884</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5816,13 @@
         <v>284115</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>109</v>
+        <v>433</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="H14" s="7">
         <v>265</v>
@@ -5774,13 +5831,13 @@
         <v>274564</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>435</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
         <v>528</v>
@@ -5789,13 +5846,13 @@
         <v>558679</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,7 +5908,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5866,10 +5923,10 @@
         <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -5878,13 +5935,13 @@
         <v>64344</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -5893,13 +5950,13 @@
         <v>162866</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5971,13 @@
         <v>98426</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>431</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -5929,13 +5986,13 @@
         <v>121544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>448</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="M17" s="7">
         <v>205</v>
@@ -5944,13 +6001,13 @@
         <v>219970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>374</v>
+        <v>451</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>132</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +6022,13 @@
         <v>176738</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="H18" s="7">
         <v>129</v>
@@ -5980,13 +6037,13 @@
         <v>133340</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>137</v>
+        <v>306</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
       <c r="M18" s="7">
         <v>291</v>
@@ -5995,13 +6052,13 @@
         <v>310077</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>167</v>
+        <v>457</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,13 +6073,13 @@
         <v>121006</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>442</v>
+        <v>352</v>
       </c>
       <c r="H19" s="7">
         <v>151</v>
@@ -6031,13 +6088,13 @@
         <v>157483</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="M19" s="7">
         <v>264</v>
@@ -6046,13 +6103,13 @@
         <v>278489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6124,13 @@
         <v>50681</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>451</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>70</v>
@@ -6082,13 +6139,13 @@
         <v>71260</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>394</v>
+        <v>471</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -6097,13 +6154,13 @@
         <v>121941</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>472</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6228,13 @@
         <v>660919</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>456</v>
+        <v>290</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="H22" s="7">
         <v>627</v>
@@ -6186,13 +6243,13 @@
         <v>700398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>19</v>
+        <v>478</v>
       </c>
       <c r="M22" s="7">
         <v>1258</v>
@@ -6201,13 +6258,13 @@
         <v>1361318</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>461</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6279,13 @@
         <v>639067</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>462</v>
+        <v>200</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="H23" s="7">
         <v>661</v>
@@ -6237,13 +6294,13 @@
         <v>699889</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="M23" s="7">
         <v>1264</v>
@@ -6252,13 +6309,13 @@
         <v>1338956</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6330,13 @@
         <v>884046</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="H24" s="7">
         <v>850</v>
@@ -6288,13 +6345,13 @@
         <v>898735</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>249</v>
+        <v>491</v>
       </c>
       <c r="M24" s="7">
         <v>1697</v>
@@ -6303,13 +6360,13 @@
         <v>1782782</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>476</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6381,13 @@
         <v>768621</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="H25" s="7">
         <v>770</v>
@@ -6339,13 +6396,13 @@
         <v>795393</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>480</v>
+        <v>97</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>497</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="M25" s="7">
         <v>1509</v>
@@ -6354,13 +6411,13 @@
         <v>1564014</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6432,13 @@
         <v>414385</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="H26" s="7">
         <v>412</v>
@@ -6390,13 +6447,13 @@
         <v>431233</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="M26" s="7">
         <v>797</v>
@@ -6405,13 +6462,13 @@
         <v>845618</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>491</v>
+        <v>289</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>200</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,7 +6543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE917A8-EA17-4A8B-B6AF-7895803D37BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AEAD50-E80B-4277-B5DA-F75AA184BB97}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6503,7 +6560,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6610,13 +6667,13 @@
         <v>184424</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="H4" s="7">
         <v>584</v>
@@ -6625,13 +6682,13 @@
         <v>317405</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="M4" s="7">
         <v>859</v>
@@ -6640,13 +6697,13 @@
         <v>501829</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6718,13 @@
         <v>124491</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="H5" s="7">
         <v>302</v>
@@ -6676,13 +6733,13 @@
         <v>191791</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="M5" s="7">
         <v>451</v>
@@ -6691,13 +6748,13 @@
         <v>316282</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6769,13 @@
         <v>127264</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="H6" s="7">
         <v>325</v>
@@ -6727,13 +6784,13 @@
         <v>195984</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>530</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="M6" s="7">
         <v>475</v>
@@ -6742,13 +6799,13 @@
         <v>323248</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>223</v>
+        <v>532</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6820,13 @@
         <v>56168</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="H7" s="7">
         <v>118</v>
@@ -6778,13 +6835,13 @@
         <v>74359</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="M7" s="7">
         <v>179</v>
@@ -6793,13 +6850,13 @@
         <v>130527</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>201</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,13 +6871,13 @@
         <v>46943</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>307</v>
+        <v>546</v>
       </c>
       <c r="H8" s="7">
         <v>93</v>
@@ -6829,13 +6886,13 @@
         <v>54099</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="M8" s="7">
         <v>147</v>
@@ -6844,13 +6901,13 @@
         <v>101041</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6975,13 @@
         <v>540351</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>534</v>
+        <v>462</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="H10" s="7">
         <v>885</v>
@@ -6933,13 +6990,13 @@
         <v>561550</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>538</v>
+        <v>475</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="M10" s="7">
         <v>1458</v>
@@ -6948,13 +7005,13 @@
         <v>1101901</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,13 +7026,13 @@
         <v>512016</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>484</v>
+        <v>559</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="H11" s="7">
         <v>773</v>
@@ -6984,13 +7041,13 @@
         <v>685021</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>545</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="M11" s="7">
         <v>1277</v>
@@ -6999,13 +7056,13 @@
         <v>1197037</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>548</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,13 +7077,13 @@
         <v>633234</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="H12" s="7">
         <v>804</v>
@@ -7035,13 +7092,13 @@
         <v>632942</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="M12" s="7">
         <v>1374</v>
@@ -7050,13 +7107,13 @@
         <v>1266176</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,13 +7128,13 @@
         <v>266962</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7">
         <v>280</v>
@@ -7086,13 +7143,13 @@
         <v>211375</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="M13" s="7">
         <v>502</v>
@@ -7101,13 +7158,13 @@
         <v>478337</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7179,13 @@
         <v>208339</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="H14" s="7">
         <v>175</v>
@@ -7137,13 +7194,13 @@
         <v>156019</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="M14" s="7">
         <v>296</v>
@@ -7152,13 +7209,13 @@
         <v>364358</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,7 +7271,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7226,13 +7283,13 @@
         <v>232109</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="H16" s="7">
         <v>370</v>
@@ -7241,13 +7298,13 @@
         <v>247921</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="M16" s="7">
         <v>617</v>
@@ -7256,13 +7313,13 @@
         <v>480030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,13 +7334,13 @@
         <v>185868</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="H17" s="7">
         <v>268</v>
@@ -7292,13 +7349,13 @@
         <v>195459</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>342</v>
+        <v>600</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="M17" s="7">
         <v>453</v>
@@ -7307,13 +7364,13 @@
         <v>381327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>585</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7385,13 @@
         <v>165569</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="H18" s="7">
         <v>256</v>
@@ -7343,10 +7400,10 @@
         <v>188023</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>80</v>
@@ -7358,13 +7415,13 @@
         <v>353591</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>217</v>
+        <v>609</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7436,13 @@
         <v>58125</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -7394,13 +7451,13 @@
         <v>47318</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -7409,13 +7466,13 @@
         <v>105443</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,13 +7487,13 @@
         <v>30490</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
@@ -7445,13 +7502,13 @@
         <v>35006</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -7460,13 +7517,13 @@
         <v>65495</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7591,13 @@
         <v>956884</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>343</v>
+        <v>631</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="H22" s="7">
         <v>1839</v>
@@ -7549,13 +7606,13 @@
         <v>1126877</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="M22" s="7">
         <v>2934</v>
@@ -7564,13 +7621,13 @@
         <v>2083761</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,13 +7642,13 @@
         <v>822375</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>211</v>
+        <v>638</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="H23" s="7">
         <v>1343</v>
@@ -7600,13 +7657,13 @@
         <v>1072272</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="M23" s="7">
         <v>2181</v>
@@ -7615,13 +7672,13 @@
         <v>1894647</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>493</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7693,13 @@
         <v>926067</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="H24" s="7">
         <v>1385</v>
@@ -7651,13 +7708,13 @@
         <v>1016949</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>91</v>
+        <v>496</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="M24" s="7">
         <v>2270</v>
@@ -7666,13 +7723,13 @@
         <v>1943016</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>358</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7744,13 @@
         <v>381254</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="H25" s="7">
         <v>457</v>
@@ -7702,13 +7759,13 @@
         <v>333052</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="M25" s="7">
         <v>791</v>
@@ -7717,13 +7774,13 @@
         <v>714306</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7795,13 @@
         <v>285771</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>643</v>
+        <v>285</v>
       </c>
       <c r="H26" s="7">
         <v>318</v>
@@ -7753,13 +7810,13 @@
         <v>245124</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="M26" s="7">
         <v>525</v>
@@ -7768,13 +7825,13 @@
         <v>530895</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B15-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93339CC8-7F23-4C27-8ABF-245AD263E1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B81D6E3-9302-432E-B821-07C2A11C58A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B454E1F-41A5-4F52-BC1E-A5C0A35D3F7E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9ECB4ABE-4175-4AB9-AFEE-C4925DC6AED7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="664">
   <si>
     <t>Población según la frecuencia de consumición de vino en 2007 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>22,04%</t>
   </si>
   <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
   </si>
   <si>
     <t>17,39%</t>
@@ -89,1960 +89,1948 @@
     <t>15,42%</t>
   </si>
   <si>
-    <t>19,55%</t>
+    <t>19,54%</t>
   </si>
   <si>
     <t>19,44%</t>
   </si>
   <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumición de vino en 2012 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumición de vino en 2016 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
     <t>17,73%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumición de vino en 2023 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
   </si>
   <si>
     <t>27,52%</t>
   </si>
   <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de vino en 2012 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de vino en 2016 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de vino en 2023 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
   </si>
 </sst>
 </file>
@@ -2454,7 +2442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114638DD-9AE8-424C-A7D3-9B71E19D9BB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FC677-2AFA-463E-8237-02BCD51BF342}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3200,7 +3188,7 @@
         <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -3209,13 +3197,13 @@
         <v>57434</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -3224,13 +3212,13 @@
         <v>136131</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,10 +3236,10 @@
         <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>86</v>
@@ -3260,13 +3248,13 @@
         <v>88330</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>193</v>
@@ -3275,13 +3263,13 @@
         <v>201183</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3284,13 @@
         <v>175624</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>162</v>
@@ -3311,13 +3299,13 @@
         <v>170609</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>330</v>
@@ -3326,13 +3314,13 @@
         <v>346233</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3335,13 @@
         <v>115501</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>95</v>
@@ -3362,13 +3350,13 @@
         <v>99789</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>210</v>
@@ -3377,13 +3365,13 @@
         <v>215290</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3386,13 @@
         <v>66848</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -3413,13 +3401,13 @@
         <v>59214</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -3428,13 +3416,13 @@
         <v>126063</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3490,13 @@
         <v>496914</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>438</v>
@@ -3517,13 +3505,13 @@
         <v>449672</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>928</v>
@@ -3532,13 +3520,13 @@
         <v>946586</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3541,13 @@
         <v>660117</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>676</v>
@@ -3568,13 +3556,13 @@
         <v>689811</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>1327</v>
@@ -3583,13 +3571,13 @@
         <v>1349929</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3592,13 @@
         <v>976512</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>1079</v>
@@ -3619,13 +3607,13 @@
         <v>1103081</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="M24" s="7">
         <v>2030</v>
@@ -3634,13 +3622,13 @@
         <v>2079593</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3643,13 @@
         <v>677126</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H25" s="7">
         <v>633</v>
@@ -3670,13 +3658,13 @@
         <v>650871</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>1297</v>
@@ -3685,13 +3673,13 @@
         <v>1327998</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3694,13 @@
         <v>458604</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>455</v>
@@ -3721,13 +3709,13 @@
         <v>468420</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>905</v>
@@ -3736,7 +3724,7 @@
         <v>927025</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>189</v>
@@ -3817,7 +3805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E4E67-BA87-4A4B-8D61-E48EB158CEEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408DFC3F-E74F-43DD-93CF-AD090816F8C9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3947,7 +3935,7 @@
         <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>245</v>
@@ -3956,13 +3944,13 @@
         <v>257817</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>444</v>
@@ -3971,13 +3959,13 @@
         <v>473612</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +3980,13 @@
         <v>125682</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>195</v>
@@ -4007,13 +3995,13 @@
         <v>210318</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>312</v>
@@ -4022,13 +4010,13 @@
         <v>336000</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4031,13 @@
         <v>239371</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H6" s="7">
         <v>333</v>
@@ -4058,13 +4046,13 @@
         <v>358947</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M6" s="7">
         <v>559</v>
@@ -4073,13 +4061,13 @@
         <v>598318</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4082,13 @@
         <v>221204</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>260</v>
@@ -4109,13 +4097,13 @@
         <v>279999</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>465</v>
@@ -4124,13 +4112,13 @@
         <v>501204</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4133,13 @@
         <v>160176</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>207</v>
@@ -4160,13 +4148,13 @@
         <v>222539</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>356</v>
@@ -4175,13 +4163,13 @@
         <v>382715</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4237,13 @@
         <v>239748</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
@@ -4264,13 +4252,13 @@
         <v>193484</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>397</v>
@@ -4279,13 +4267,13 @@
         <v>433232</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4288,13 @@
         <v>257158</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
         <v>224</v>
@@ -4315,13 +4303,13 @@
         <v>240747</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>469</v>
@@ -4330,13 +4318,13 @@
         <v>497905</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4339,13 @@
         <v>530333</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H12" s="7">
         <v>478</v>
@@ -4366,13 +4354,13 @@
         <v>511764</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M12" s="7">
         <v>976</v>
@@ -4381,13 +4369,13 @@
         <v>1042097</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4390,13 @@
         <v>533705</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>438</v>
@@ -4417,13 +4405,13 @@
         <v>470055</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>939</v>
@@ -4432,13 +4420,13 @@
         <v>1003759</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4441,13 @@
         <v>399571</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>318</v>
@@ -4468,13 +4456,13 @@
         <v>335736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="M14" s="7">
         <v>702</v>
@@ -4483,13 +4471,13 @@
         <v>735307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4545,13 @@
         <v>56230</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -4572,13 +4560,13 @@
         <v>47346</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>147</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
@@ -4587,13 +4575,13 @@
         <v>103577</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,13 +4596,13 @@
         <v>70537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -4623,13 +4611,13 @@
         <v>71023</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>125</v>
@@ -4638,13 +4626,13 @@
         <v>141560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4647,13 @@
         <v>164456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>128</v>
@@ -4674,13 +4662,13 @@
         <v>140869</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M18" s="7">
         <v>276</v>
@@ -4689,13 +4677,13 @@
         <v>305325</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4698,13 @@
         <v>119131</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>306</v>
+        <v>137</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
         <v>113</v>
@@ -4725,13 +4713,13 @@
         <v>125021</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>223</v>
@@ -4740,13 +4728,13 @@
         <v>244152</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4749,13 @@
         <v>68918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
@@ -4776,13 +4764,13 @@
         <v>73412</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>131</v>
@@ -4791,13 +4779,13 @@
         <v>142329</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>64</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4853,13 @@
         <v>511773</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>459</v>
@@ -4880,13 +4868,13 @@
         <v>498647</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M22" s="7">
         <v>933</v>
@@ -4895,13 +4883,13 @@
         <v>1010420</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>56</v>
+        <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4904,13 @@
         <v>453377</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H23" s="7">
         <v>480</v>
@@ -4931,13 +4919,13 @@
         <v>522088</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M23" s="7">
         <v>906</v>
@@ -4946,13 +4934,13 @@
         <v>975465</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4955,13 @@
         <v>934160</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>338</v>
+        <v>254</v>
       </c>
       <c r="H24" s="7">
         <v>939</v>
@@ -4982,13 +4970,13 @@
         <v>1011581</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M24" s="7">
         <v>1811</v>
@@ -4997,13 +4985,13 @@
         <v>1945741</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>214</v>
+        <v>337</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5006,13 @@
         <v>874039</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>345</v>
+        <v>215</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="H25" s="7">
         <v>811</v>
@@ -5033,13 +5021,13 @@
         <v>875075</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M25" s="7">
         <v>1627</v>
@@ -5048,13 +5036,13 @@
         <v>1749115</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5057,13 @@
         <v>628664</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="H26" s="7">
         <v>592</v>
@@ -5084,13 +5072,13 @@
         <v>631686</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>225</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M26" s="7">
         <v>1189</v>
@@ -5099,13 +5087,13 @@
         <v>1260351</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>100</v>
+        <v>354</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>359</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,7 +5168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E12304-A661-40DE-9E01-65CCA39D1263}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8ECF8B-04AA-4392-975E-138311F26552}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5197,7 +5185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5304,13 +5292,13 @@
         <v>226426</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>263</v>
+        <v>357</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H4" s="7">
         <v>273</v>
@@ -5319,13 +5307,13 @@
         <v>312829</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>506</v>
@@ -5334,13 +5322,13 @@
         <v>539255</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5343,13 @@
         <v>139873</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -5370,13 +5358,13 @@
         <v>201666</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M5" s="7">
         <v>327</v>
@@ -5385,13 +5373,13 @@
         <v>341539</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5394,13 @@
         <v>162168</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H6" s="7">
         <v>201</v>
@@ -5421,13 +5409,13 @@
         <v>221699</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M6" s="7">
         <v>364</v>
@@ -5436,13 +5424,13 @@
         <v>383867</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5445,13 @@
         <v>143584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -5472,13 +5460,13 @@
         <v>173057</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M7" s="7">
         <v>303</v>
@@ -5487,13 +5475,13 @@
         <v>316641</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5496,13 @@
         <v>79590</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>389</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="H8" s="7">
         <v>77</v>
@@ -5523,13 +5511,13 @@
         <v>85409</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>397</v>
+        <v>240</v>
       </c>
       <c r="M8" s="7">
         <v>151</v>
@@ -5538,13 +5526,13 @@
         <v>164998</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>400</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5600,13 @@
         <v>335972</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>294</v>
@@ -5627,13 +5615,13 @@
         <v>323224</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>403</v>
+        <v>320</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>404</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M10" s="7">
         <v>605</v>
@@ -5642,13 +5630,13 @@
         <v>659197</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>407</v>
+        <v>318</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5651,13 @@
         <v>400769</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>410</v>
+        <v>95</v>
       </c>
       <c r="H11" s="7">
         <v>363</v>
@@ -5678,28 +5666,28 @@
         <v>376678</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>411</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>413</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>732</v>
       </c>
       <c r="N11" s="7">
-        <v>777446</v>
+        <v>777447</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>93</v>
+        <v>312</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>415</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,13 +5702,13 @@
         <v>545140</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H12" s="7">
         <v>520</v>
@@ -5729,13 +5717,13 @@
         <v>543696</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>37</v>
+        <v>408</v>
       </c>
       <c r="M12" s="7">
         <v>1042</v>
@@ -5744,13 +5732,13 @@
         <v>1088837</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5753,13 @@
         <v>504031</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="H13" s="7">
         <v>461</v>
@@ -5780,13 +5768,13 @@
         <v>464853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="M13" s="7">
         <v>942</v>
@@ -5795,13 +5783,13 @@
         <v>968884</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5804,13 @@
         <v>284115</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>434</v>
+        <v>111</v>
       </c>
       <c r="H14" s="7">
         <v>265</v>
@@ -5831,13 +5819,13 @@
         <v>274564</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>436</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="M14" s="7">
         <v>528</v>
@@ -5846,10 +5834,10 @@
         <v>558679</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>190</v>
@@ -5894,7 +5882,7 @@
         <v>3849</v>
       </c>
       <c r="N15" s="7">
-        <v>4053043</v>
+        <v>4053044</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5923,10 +5911,10 @@
         <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>426</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -5935,13 +5923,13 @@
         <v>64344</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -5950,13 +5938,13 @@
         <v>162866</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,13 +5959,13 @@
         <v>98426</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>447</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>435</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -5986,13 +5974,13 @@
         <v>121544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="M17" s="7">
         <v>205</v>
@@ -6001,13 +5989,13 @@
         <v>219970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>451</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +6010,13 @@
         <v>176738</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="H18" s="7">
         <v>129</v>
@@ -6037,13 +6025,13 @@
         <v>133340</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>306</v>
+        <v>445</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="M18" s="7">
         <v>291</v>
@@ -6052,13 +6040,13 @@
         <v>310077</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>459</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,13 +6061,13 @@
         <v>121006</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>449</v>
+        <v>198</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>352</v>
+        <v>450</v>
       </c>
       <c r="H19" s="7">
         <v>151</v>
@@ -6088,13 +6076,13 @@
         <v>157483</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="M19" s="7">
         <v>264</v>
@@ -6103,13 +6091,13 @@
         <v>278489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6112,13 @@
         <v>50681</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>459</v>
       </c>
       <c r="H20" s="7">
         <v>70</v>
@@ -6139,13 +6127,13 @@
         <v>71260</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -6154,13 +6142,13 @@
         <v>121941</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6216,13 @@
         <v>660919</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>290</v>
+        <v>466</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>475</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>627</v>
@@ -6243,28 +6231,28 @@
         <v>700398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>477</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="M22" s="7">
         <v>1258</v>
       </c>
       <c r="N22" s="7">
-        <v>1361318</v>
+        <v>1361317</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>233</v>
+        <v>470</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>177</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6267,13 @@
         <v>639067</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>200</v>
+        <v>472</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>272</v>
+        <v>474</v>
       </c>
       <c r="H23" s="7">
         <v>661</v>
@@ -6294,13 +6282,13 @@
         <v>699889</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M23" s="7">
         <v>1264</v>
@@ -6309,13 +6297,13 @@
         <v>1338956</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6318,13 @@
         <v>884046</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H24" s="7">
         <v>850</v>
@@ -6345,28 +6333,28 @@
         <v>898735</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M24" s="7">
         <v>1697</v>
       </c>
       <c r="N24" s="7">
-        <v>1782782</v>
+        <v>1782781</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>35</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6369,13 @@
         <v>768621</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H25" s="7">
         <v>770</v>
@@ -6396,13 +6384,13 @@
         <v>795393</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>97</v>
+        <v>492</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>497</v>
+        <v>219</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M25" s="7">
         <v>1509</v>
@@ -6411,13 +6399,13 @@
         <v>1564014</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6420,13 @@
         <v>414385</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>436</v>
+        <v>497</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H26" s="7">
         <v>412</v>
@@ -6447,13 +6435,13 @@
         <v>431233</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>504</v>
+        <v>248</v>
       </c>
       <c r="M26" s="7">
         <v>797</v>
@@ -6462,13 +6450,13 @@
         <v>845618</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>502</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>506</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,7 +6498,7 @@
         <v>6525</v>
       </c>
       <c r="N27" s="7">
-        <v>6892687</v>
+        <v>6892686</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6543,7 +6531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AEAD50-E80B-4277-B5DA-F75AA184BB97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5E0FFC-79A2-444F-88DD-EAC10B4DA647}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6560,7 +6548,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6667,13 +6655,13 @@
         <v>184424</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H4" s="7">
         <v>584</v>
@@ -6682,13 +6670,13 @@
         <v>317405</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M4" s="7">
         <v>859</v>
@@ -6697,13 +6685,13 @@
         <v>501829</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6706,13 @@
         <v>124491</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H5" s="7">
         <v>302</v>
@@ -6733,13 +6721,13 @@
         <v>191791</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>522</v>
+        <v>410</v>
       </c>
       <c r="M5" s="7">
         <v>451</v>
@@ -6748,13 +6736,13 @@
         <v>316282</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6757,13 @@
         <v>127264</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H6" s="7">
         <v>325</v>
@@ -6784,13 +6772,13 @@
         <v>195984</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>529</v>
+        <v>139</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>530</v>
+        <v>71</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="M6" s="7">
         <v>475</v>
@@ -6799,13 +6787,13 @@
         <v>323248</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>533</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>534</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +6808,13 @@
         <v>56168</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>537</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7">
         <v>118</v>
@@ -6835,13 +6823,13 @@
         <v>74359</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="M7" s="7">
         <v>179</v>
@@ -6850,13 +6838,13 @@
         <v>130527</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,13 +6859,13 @@
         <v>46943</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="H8" s="7">
         <v>93</v>
@@ -6886,13 +6874,13 @@
         <v>54099</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="M8" s="7">
         <v>147</v>
@@ -6901,13 +6889,13 @@
         <v>101041</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6975,13 +6963,13 @@
         <v>540351</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="H10" s="7">
         <v>885</v>
@@ -6990,13 +6978,13 @@
         <v>561550</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>475</v>
+        <v>545</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="M10" s="7">
         <v>1458</v>
@@ -7005,13 +6993,13 @@
         <v>1101901</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,13 +7014,13 @@
         <v>512016</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>559</v>
+        <v>496</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="H11" s="7">
         <v>773</v>
@@ -7041,13 +7029,13 @@
         <v>685021</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>553</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="M11" s="7">
         <v>1277</v>
@@ -7056,13 +7044,13 @@
         <v>1197037</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>556</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7065,13 @@
         <v>633234</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="H12" s="7">
         <v>804</v>
@@ -7092,13 +7080,13 @@
         <v>632942</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="M12" s="7">
         <v>1374</v>
@@ -7107,13 +7095,13 @@
         <v>1266176</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7116,13 @@
         <v>266962</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>324</v>
+        <v>569</v>
       </c>
       <c r="H13" s="7">
         <v>280</v>
@@ -7143,13 +7131,13 @@
         <v>211375</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="M13" s="7">
         <v>502</v>
@@ -7158,13 +7146,13 @@
         <v>478337</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7167,13 @@
         <v>208339</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="H14" s="7">
         <v>175</v>
@@ -7194,13 +7182,13 @@
         <v>156019</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="M14" s="7">
         <v>296</v>
@@ -7209,13 +7197,13 @@
         <v>364358</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>111</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,13 +7271,13 @@
         <v>232109</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>509</v>
+        <v>584</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H16" s="7">
         <v>370</v>
@@ -7298,13 +7286,13 @@
         <v>247921</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="M16" s="7">
         <v>617</v>
@@ -7313,13 +7301,13 @@
         <v>480030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7322,13 @@
         <v>185868</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H17" s="7">
         <v>268</v>
@@ -7349,13 +7337,13 @@
         <v>195459</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M17" s="7">
         <v>453</v>
@@ -7364,13 +7352,13 @@
         <v>381327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>598</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7373,13 @@
         <v>165569</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>604</v>
+        <v>482</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H18" s="7">
         <v>256</v>
@@ -7400,13 +7388,13 @@
         <v>188023</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>608</v>
+        <v>139</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>80</v>
+        <v>604</v>
       </c>
       <c r="M18" s="7">
         <v>421</v>
@@ -7415,13 +7403,13 @@
         <v>353591</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>611</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,13 +7424,13 @@
         <v>58125</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -7451,13 +7439,13 @@
         <v>47318</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -7466,13 +7454,13 @@
         <v>105443</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>620</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7487,13 +7475,13 @@
         <v>30490</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
@@ -7502,13 +7490,13 @@
         <v>35006</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -7517,13 +7505,13 @@
         <v>65495</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,13 +7579,13 @@
         <v>956884</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>630</v>
+        <v>168</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="H22" s="7">
         <v>1839</v>
@@ -7606,13 +7594,13 @@
         <v>1126877</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="M22" s="7">
         <v>2934</v>
@@ -7621,13 +7609,13 @@
         <v>2083761</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>419</v>
+        <v>630</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,13 +7630,13 @@
         <v>822375</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="H23" s="7">
         <v>1343</v>
@@ -7657,13 +7645,13 @@
         <v>1072272</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="M23" s="7">
         <v>2181</v>
@@ -7672,13 +7660,13 @@
         <v>1894647</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>519</v>
+        <v>638</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>493</v>
+        <v>639</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,13 +7681,13 @@
         <v>926067</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="H24" s="7">
         <v>1385</v>
@@ -7708,13 +7696,13 @@
         <v>1016949</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>496</v>
+        <v>644</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>648</v>
+        <v>360</v>
       </c>
       <c r="M24" s="7">
         <v>2270</v>
@@ -7723,13 +7711,13 @@
         <v>1943016</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>651</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,13 +7732,13 @@
         <v>381254</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="H25" s="7">
         <v>457</v>
@@ -7759,13 +7747,13 @@
         <v>333052</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="M25" s="7">
         <v>791</v>
@@ -7774,13 +7762,13 @@
         <v>714306</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,13 +7783,13 @@
         <v>285771</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>285</v>
+        <v>657</v>
       </c>
       <c r="H26" s="7">
         <v>318</v>
@@ -7810,13 +7798,13 @@
         <v>245124</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="M26" s="7">
         <v>525</v>
@@ -7825,13 +7813,13 @@
         <v>530895</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>539</v>
+        <v>661</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B15-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B81D6E3-9302-432E-B821-07C2A11C58A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{211A6B2C-D483-4262-95DC-CAEDB6E85077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9ECB4ABE-4175-4AB9-AFEE-C4925DC6AED7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{06FAE722-E83B-4DFC-962B-482FC41AB15E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="661">
   <si>
     <t>Población según la frecuencia de consumición de vino en 2007 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -1553,484 +1553,475 @@
     <t>Población según la frecuencia de consumición de vino en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
   <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
   </si>
   <si>
     <t>36,55%</t>
   </si>
   <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
     <t>22,62%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
   </si>
 </sst>
 </file>
@@ -2442,7 +2433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FC677-2AFA-463E-8237-02BCD51BF342}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30177518-8875-466E-8350-65561BE86512}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3568,7 +3559,7 @@
         <v>1327</v>
       </c>
       <c r="N23" s="7">
-        <v>1349929</v>
+        <v>1349928</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>164</v>
@@ -3721,7 +3712,7 @@
         <v>905</v>
       </c>
       <c r="N26" s="7">
-        <v>927025</v>
+        <v>927024</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>188</v>
@@ -3742,7 +3733,7 @@
         <v>3206</v>
       </c>
       <c r="D27" s="7">
-        <v>3269274</v>
+        <v>3269273</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3772,7 +3763,7 @@
         <v>6487</v>
       </c>
       <c r="N27" s="7">
-        <v>6631130</v>
+        <v>6631129</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3805,7 +3796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408DFC3F-E74F-43DD-93CF-AD090816F8C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F727E069-FACC-47FC-A369-0693D88DEEC3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4249,7 +4240,7 @@
         <v>172</v>
       </c>
       <c r="I10" s="7">
-        <v>193484</v>
+        <v>193483</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>236</v>
@@ -4504,7 +4495,7 @@
         <v>1630</v>
       </c>
       <c r="I15" s="7">
-        <v>1751786</v>
+        <v>1751785</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -4916,7 +4907,7 @@
         <v>480</v>
       </c>
       <c r="I23" s="7">
-        <v>522088</v>
+        <v>522089</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>328</v>
@@ -5018,7 +5009,7 @@
         <v>811</v>
       </c>
       <c r="I25" s="7">
-        <v>875075</v>
+        <v>875076</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>342</v>
@@ -5069,7 +5060,7 @@
         <v>592</v>
       </c>
       <c r="I26" s="7">
-        <v>631686</v>
+        <v>631687</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>351</v>
@@ -5120,7 +5111,7 @@
         <v>3281</v>
       </c>
       <c r="I27" s="7">
-        <v>3539078</v>
+        <v>3539079</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -5168,7 +5159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8ECF8B-04AA-4392-975E-138311F26552}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4273D6-EBBA-4CFB-91E9-35C65892A907}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5612,7 +5603,7 @@
         <v>294</v>
       </c>
       <c r="I10" s="7">
-        <v>323224</v>
+        <v>323225</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>320</v>
@@ -5678,7 +5669,7 @@
         <v>732</v>
       </c>
       <c r="N11" s="7">
-        <v>777447</v>
+        <v>777446</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>402</v>
@@ -5714,7 +5705,7 @@
         <v>520</v>
       </c>
       <c r="I12" s="7">
-        <v>543696</v>
+        <v>543697</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>406</v>
@@ -5867,7 +5858,7 @@
         <v>1903</v>
       </c>
       <c r="I15" s="7">
-        <v>1983016</v>
+        <v>1983017</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -5882,7 +5873,7 @@
         <v>3849</v>
       </c>
       <c r="N15" s="7">
-        <v>4053044</v>
+        <v>4053043</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -6243,7 +6234,7 @@
         <v>1258</v>
       </c>
       <c r="N22" s="7">
-        <v>1361317</v>
+        <v>1361318</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>469</v>
@@ -6345,7 +6336,7 @@
         <v>1697</v>
       </c>
       <c r="N24" s="7">
-        <v>1782781</v>
+        <v>1782782</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>486</v>
@@ -6498,7 +6489,7 @@
         <v>6525</v>
       </c>
       <c r="N27" s="7">
-        <v>6892686</v>
+        <v>6892687</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6531,7 +6522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5E0FFC-79A2-444F-88DD-EAC10B4DA647}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F1281E-046F-4FFD-AC61-A28C21879C15}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6652,7 +6643,7 @@
         <v>275</v>
       </c>
       <c r="D4" s="7">
-        <v>184424</v>
+        <v>174775</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>504</v>
@@ -6667,7 +6658,7 @@
         <v>584</v>
       </c>
       <c r="I4" s="7">
-        <v>317405</v>
+        <v>287873</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>507</v>
@@ -6682,7 +6673,7 @@
         <v>859</v>
       </c>
       <c r="N4" s="7">
-        <v>501829</v>
+        <v>462649</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>510</v>
@@ -6703,7 +6694,7 @@
         <v>149</v>
       </c>
       <c r="D5" s="7">
-        <v>124491</v>
+        <v>114490</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>513</v>
@@ -6718,7 +6709,7 @@
         <v>302</v>
       </c>
       <c r="I5" s="7">
-        <v>191791</v>
+        <v>169513</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>516</v>
@@ -6727,22 +6718,22 @@
         <v>517</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>410</v>
+        <v>518</v>
       </c>
       <c r="M5" s="7">
         <v>451</v>
       </c>
       <c r="N5" s="7">
-        <v>316282</v>
+        <v>284003</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>518</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,28 +6745,28 @@
         <v>150</v>
       </c>
       <c r="D6" s="7">
-        <v>127264</v>
+        <v>124203</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="H6" s="7">
         <v>325</v>
       </c>
       <c r="I6" s="7">
-        <v>195984</v>
+        <v>179088</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>139</v>
+        <v>522</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>71</v>
+        <v>523</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>524</v>
@@ -6784,16 +6775,16 @@
         <v>475</v>
       </c>
       <c r="N6" s="7">
-        <v>323248</v>
+        <v>303291</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>525</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>76</v>
+        <v>526</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>341</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,46 +6796,46 @@
         <v>61</v>
       </c>
       <c r="D7" s="7">
-        <v>56168</v>
+        <v>54865</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H7" s="7">
         <v>118</v>
       </c>
       <c r="I7" s="7">
-        <v>74359</v>
+        <v>67229</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M7" s="7">
         <v>179</v>
       </c>
       <c r="N7" s="7">
-        <v>130527</v>
+        <v>122093</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>533</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,46 +6847,46 @@
         <v>54</v>
       </c>
       <c r="D8" s="7">
-        <v>46943</v>
+        <v>44297</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H8" s="7">
         <v>93</v>
       </c>
       <c r="I8" s="7">
-        <v>54099</v>
+        <v>49631</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M8" s="7">
         <v>147</v>
       </c>
       <c r="N8" s="7">
-        <v>101041</v>
+        <v>93927</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,7 +6898,7 @@
         <v>689</v>
       </c>
       <c r="D9" s="7">
-        <v>539290</v>
+        <v>512629</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6922,7 +6913,7 @@
         <v>1422</v>
       </c>
       <c r="I9" s="7">
-        <v>833638</v>
+        <v>753334</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6937,7 +6928,7 @@
         <v>2111</v>
       </c>
       <c r="N9" s="7">
-        <v>1372928</v>
+        <v>1265963</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6960,46 +6951,46 @@
         <v>573</v>
       </c>
       <c r="D10" s="7">
-        <v>540351</v>
+        <v>518333</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="H10" s="7">
         <v>885</v>
       </c>
       <c r="I10" s="7">
-        <v>561550</v>
+        <v>516726</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="M10" s="7">
         <v>1458</v>
       </c>
       <c r="N10" s="7">
-        <v>1101901</v>
+        <v>1035059</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>549</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,46 +7002,46 @@
         <v>504</v>
       </c>
       <c r="D11" s="7">
-        <v>512016</v>
+        <v>495970</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H11" s="7">
         <v>773</v>
       </c>
       <c r="I11" s="7">
-        <v>685021</v>
+        <v>721866</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="M11" s="7">
         <v>1277</v>
       </c>
       <c r="N11" s="7">
-        <v>1197037</v>
+        <v>1217836</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,46 +7053,46 @@
         <v>570</v>
       </c>
       <c r="D12" s="7">
-        <v>633234</v>
+        <v>627123</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H12" s="7">
         <v>804</v>
       </c>
       <c r="I12" s="7">
-        <v>632942</v>
+        <v>639893</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="M12" s="7">
         <v>1374</v>
       </c>
       <c r="N12" s="7">
-        <v>1266176</v>
+        <v>1267016</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,46 +7104,46 @@
         <v>222</v>
       </c>
       <c r="D13" s="7">
-        <v>266962</v>
+        <v>255972</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H13" s="7">
         <v>280</v>
       </c>
       <c r="I13" s="7">
-        <v>211375</v>
+        <v>190333</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="M13" s="7">
         <v>502</v>
       </c>
       <c r="N13" s="7">
-        <v>478337</v>
+        <v>446305</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>573</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,46 +7155,46 @@
         <v>121</v>
       </c>
       <c r="D14" s="7">
-        <v>208339</v>
+        <v>391809</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H14" s="7">
         <v>175</v>
       </c>
       <c r="I14" s="7">
-        <v>156019</v>
+        <v>166554</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="M14" s="7">
         <v>296</v>
       </c>
       <c r="N14" s="7">
-        <v>364358</v>
+        <v>558363</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>460</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,7 +7206,7 @@
         <v>1990</v>
       </c>
       <c r="D15" s="7">
-        <v>2160902</v>
+        <v>2289208</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7230,7 +7221,7 @@
         <v>2917</v>
       </c>
       <c r="I15" s="7">
-        <v>2246908</v>
+        <v>2235372</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7245,7 +7236,7 @@
         <v>4907</v>
       </c>
       <c r="N15" s="7">
-        <v>4407810</v>
+        <v>4524580</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7268,46 +7259,46 @@
         <v>247</v>
       </c>
       <c r="D16" s="7">
-        <v>232109</v>
+        <v>219844</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>585</v>
+        <v>506</v>
       </c>
       <c r="H16" s="7">
         <v>370</v>
       </c>
       <c r="I16" s="7">
-        <v>247921</v>
+        <v>227957</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="M16" s="7">
         <v>617</v>
       </c>
       <c r="N16" s="7">
-        <v>480030</v>
+        <v>447801</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,46 +7310,46 @@
         <v>185</v>
       </c>
       <c r="D17" s="7">
-        <v>185868</v>
+        <v>177249</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>593</v>
+        <v>493</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H17" s="7">
         <v>268</v>
       </c>
       <c r="I17" s="7">
-        <v>195459</v>
+        <v>178422</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M17" s="7">
         <v>453</v>
       </c>
       <c r="N17" s="7">
-        <v>381327</v>
+        <v>355671</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>599</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,46 +7361,46 @@
         <v>165</v>
       </c>
       <c r="D18" s="7">
-        <v>165569</v>
+        <v>160163</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H18" s="7">
         <v>256</v>
       </c>
       <c r="I18" s="7">
-        <v>188023</v>
+        <v>178177</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>139</v>
+        <v>605</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M18" s="7">
         <v>421</v>
       </c>
       <c r="N18" s="7">
-        <v>353591</v>
+        <v>338340</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>606</v>
+        <v>496</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,10 +7412,10 @@
         <v>51</v>
       </c>
       <c r="D19" s="7">
-        <v>58125</v>
+        <v>60022</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>607</v>
+        <v>457</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>608</v>
@@ -7436,31 +7427,31 @@
         <v>59</v>
       </c>
       <c r="I19" s="7">
-        <v>47318</v>
+        <v>43514</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
       </c>
       <c r="N19" s="7">
-        <v>105443</v>
+        <v>103537</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,46 +7463,46 @@
         <v>32</v>
       </c>
       <c r="D20" s="7">
-        <v>30490</v>
+        <v>28511</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>617</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
       </c>
       <c r="I20" s="7">
-        <v>35006</v>
+        <v>32233</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>620</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
       </c>
       <c r="N20" s="7">
-        <v>65495</v>
+        <v>60744</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7523,7 +7514,7 @@
         <v>680</v>
       </c>
       <c r="D21" s="7">
-        <v>672160</v>
+        <v>645789</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7538,7 +7529,7 @@
         <v>1003</v>
       </c>
       <c r="I21" s="7">
-        <v>713727</v>
+        <v>660304</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7553,7 +7544,7 @@
         <v>1683</v>
       </c>
       <c r="N21" s="7">
-        <v>1385887</v>
+        <v>1306093</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7576,10 +7567,10 @@
         <v>1095</v>
       </c>
       <c r="D22" s="7">
-        <v>956884</v>
+        <v>912951</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>168</v>
+        <v>623</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>624</v>
@@ -7591,31 +7582,31 @@
         <v>1839</v>
       </c>
       <c r="I22" s="7">
-        <v>1126877</v>
+        <v>1032557</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>626</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="M22" s="7">
         <v>2934</v>
       </c>
       <c r="N22" s="7">
-        <v>2083761</v>
+        <v>1945508</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,46 +7618,46 @@
         <v>838</v>
       </c>
       <c r="D23" s="7">
-        <v>822375</v>
+        <v>787709</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>634</v>
       </c>
       <c r="H23" s="7">
         <v>1343</v>
       </c>
       <c r="I23" s="7">
-        <v>1072272</v>
+        <v>1069801</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="M23" s="7">
         <v>2181</v>
       </c>
       <c r="N23" s="7">
-        <v>1894647</v>
+        <v>1857509</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,46 +7669,46 @@
         <v>885</v>
       </c>
       <c r="D24" s="7">
-        <v>926067</v>
+        <v>911489</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>334</v>
+        <v>639</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>642</v>
+        <v>309</v>
       </c>
       <c r="H24" s="7">
         <v>1385</v>
       </c>
       <c r="I24" s="7">
-        <v>1016949</v>
+        <v>997159</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M24" s="7">
         <v>2270</v>
       </c>
       <c r="N24" s="7">
-        <v>1943016</v>
+        <v>1908648</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,7 +7720,7 @@
         <v>334</v>
       </c>
       <c r="D25" s="7">
-        <v>381254</v>
+        <v>370859</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>646</v>
@@ -7738,37 +7729,37 @@
         <v>647</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>648</v>
+        <v>584</v>
       </c>
       <c r="H25" s="7">
         <v>457</v>
       </c>
       <c r="I25" s="7">
-        <v>333052</v>
+        <v>301076</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>651</v>
       </c>
       <c r="M25" s="7">
         <v>791</v>
       </c>
       <c r="N25" s="7">
-        <v>714306</v>
+        <v>671935</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>654</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,46 +7771,46 @@
         <v>207</v>
       </c>
       <c r="D26" s="7">
-        <v>285771</v>
+        <v>464617</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H26" s="7">
         <v>318</v>
       </c>
       <c r="I26" s="7">
-        <v>245124</v>
+        <v>248418</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="M26" s="7">
         <v>525</v>
       </c>
       <c r="N26" s="7">
-        <v>530895</v>
+        <v>713035</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7831,7 +7822,7 @@
         <v>3359</v>
       </c>
       <c r="D27" s="7">
-        <v>3372351</v>
+        <v>3447625</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7846,7 +7837,7 @@
         <v>5342</v>
       </c>
       <c r="I27" s="7">
-        <v>3794274</v>
+        <v>3649010</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7861,7 +7852,7 @@
         <v>8701</v>
       </c>
       <c r="N27" s="7">
-        <v>7166625</v>
+        <v>7096635</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
